--- a/server/tempCourseAllocation.xlsx
+++ b/server/tempCourseAllocation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Express_projects\co_po_web\server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\CO-PO\co_po_web\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0680E170-853C-473F-8EAE-C7AFB1ECA49E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B855C299-F89D-4953-AD8E-63114907CA51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
   <si>
     <t>facultyID</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Dr. Raju</t>
+  </si>
+  <si>
+    <t>CS502</t>
   </si>
 </sst>
 </file>
@@ -405,18 +408,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="9" max="9" width="8.88671875" customWidth="1"/>
+    <col min="9" max="9" width="8.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -445,7 +448,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -474,7 +477,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -503,7 +506,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -530,6 +533,35 @@
       </c>
       <c r="I4" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5">
+        <v>2027</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
